--- a/04 CSV/ASI/Tintaburra_prep_for_ASI.xlsx
+++ b/04 CSV/ASI/Tintaburra_prep_for_ASI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdmx\Desktop\CB ASI Final\1650\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdmx\Desktop\CB ASI Final\Sent to Cheng\1650\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88E661-FB51-4093-B35B-36DA4191E6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CBDB5-2A44-4ABF-8E7F-9176D2CD4B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A425616D-ABD8-4E68-A983-5B7C61D8A4F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A425616D-ABD8-4E68-A983-5B7C61D8A4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="169">
   <si>
     <t>Tintaburra Satellite - Alternator  - Diesel Engine</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>Parent Asset</t>
+  </si>
+  <si>
+    <t>Parent Asset - Maintenance covered by children</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2CDCE-1DBD-4EF8-B940-A62CE1740606}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1967,7 +1972,7 @@
         <v>167</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>167</v>
@@ -2002,7 +2007,7 @@
         <v>167</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>167</v>
@@ -2037,7 +2042,7 @@
         <v>167</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>167</v>
@@ -2072,7 +2077,7 @@
         <v>167</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>167</v>
@@ -2352,7 +2357,7 @@
         <v>167</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>167</v>
@@ -2597,7 +2602,7 @@
         <v>167</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>167</v>
@@ -2772,7 +2777,7 @@
         <v>167</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>167</v>
@@ -2842,7 +2847,7 @@
         <v>167</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>167</v>
@@ -3087,7 +3092,7 @@
         <v>167</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>167</v>
@@ -3157,7 +3162,7 @@
         <v>167</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>167</v>
@@ -3192,7 +3197,7 @@
         <v>167</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>167</v>
@@ -3227,7 +3232,7 @@
         <v>167</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>167</v>
@@ -3262,7 +3267,7 @@
         <v>167</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>167</v>
